--- a/BDD/COLLAB.xlsx
+++ b/BDD/COLLAB.xlsx
@@ -5,20 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboufares\Desktop\suiviProjetG\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboufares\Desktop\Nouveau dossier\suiviProjetG\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3F781-0873-425A-8967-25D64DD19F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6154110-EB02-4B9A-8B23-636737327C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="S02" sheetId="4" r:id="rId1"/>
-    <sheet name="BDD" sheetId="1" r:id="rId2"/>
+    <sheet name="S01" sheetId="5" r:id="rId1"/>
+    <sheet name="S02" sheetId="4" r:id="rId2"/>
+    <sheet name="S03" sheetId="6" r:id="rId3"/>
+    <sheet name="S04" sheetId="7" r:id="rId4"/>
+    <sheet name="BDD" sheetId="1" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="TACHES">[1]SOURCE!#REF!</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="68">
   <si>
     <t>ATTENTE</t>
   </si>
@@ -202,9 +205,6 @@
     <t>Nom:</t>
   </si>
   <si>
-    <t xml:space="preserve">FEUILLE DE POINTAGE </t>
-  </si>
-  <si>
     <t>MISE EN DONNEE</t>
   </si>
   <si>
@@ -235,16 +235,22 @@
     <t>Du 08 au 12 Janvier 2024</t>
   </si>
   <si>
-    <t>17</t>
+    <t>S01</t>
   </si>
   <si>
-    <t>22</t>
+    <t>Du 01 au 05 Janvier 2024</t>
   </si>
   <si>
-    <t>14H</t>
+    <t>S03</t>
   </si>
   <si>
-    <t>15H</t>
+    <t>Du 15 au 19 Janvier 2024</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Du 22 au 26 Janvier 2024</t>
   </si>
 </sst>
 </file>
@@ -983,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1280,6 +1286,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,10 +1305,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,10 +1382,70 @@
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE608AC9-801C-4971-9446-AC94ECD87F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1095" r="1219" b="3294"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="148590" y="74295"/>
+          <a:ext cx="1263015" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1404,6 +1473,126 @@
         <a:xfrm>
           <a:off x="148590" y="74295"/>
           <a:ext cx="1242060" cy="672465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B65F62-994A-416F-8827-6CD2DD727CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1095" r="1219" b="3294"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="148590" y="74295"/>
+          <a:ext cx="1263015" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1015365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A493807C-5A00-4302-96D9-11E16C4979AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1095" r="1219" b="3294"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="148590" y="74295"/>
+          <a:ext cx="1263015" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2078,33 +2267,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7E91E2-C564-4C2A-BAF7-E59585C721FC}">
-  <dimension ref="A1:U34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F46991-B5F8-43B8-9FD9-CFB2E137D67C}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="21" ySplit="34" topLeftCell="V56" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V61" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2127,23 +2319,24 @@
       <c r="T1" s="49"/>
       <c r="U1" s="49"/>
     </row>
-    <row r="2" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
+      <c r="F2" s="93" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Tanguy MONFORT</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -2152,21 +2345,21 @@
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -2175,7 +2368,7 @@
       <c r="T3" s="49"/>
       <c r="U3" s="49"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -2188,30 +2381,20 @@
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="96"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="98"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
       <c r="R4" s="49"/>
-      <c r="S4" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="100"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="49"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
-      <c r="B5" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -2221,35 +2404,28 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="98"/>
+      <c r="M5" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="97"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="53">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=FORMATION")</f>
-        <v>0</v>
-      </c>
+      <c r="P5" s="98" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE FONCTION </v>
+      </c>
+      <c r="Q5" s="99"/>
       <c r="R5" s="49"/>
-      <c r="S5" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="67">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=FORMATION")</f>
-        <v>0</v>
-      </c>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
       <c r="U5" s="49"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="49"/>
       <c r="B6" s="88" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -2260,35 +2436,28 @@
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=06",$E$10:$E$32,"=SDD")</f>
-        <v>0</v>
-      </c>
+      <c r="M6" s="98" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE ENSEMBLE </v>
+      </c>
+      <c r="N6" s="99"/>
       <c r="O6" s="49"/>
-      <c r="P6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=GESTION PROJET")</f>
+      <c r="P6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="53">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
         <v>0</v>
       </c>
       <c r="R6" s="49"/>
-      <c r="S6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=GESTION PROJET")</f>
-        <v>0</v>
-      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="49"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="49"/>
       <c r="B7" s="88" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>62</v>
@@ -2302,177 +2471,154 @@
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
-      <c r="M7" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=06",$E$10:$E$32,"=INDUS")</f>
+      <c r="M7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O7" s="49"/>
       <c r="P7" s="54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=REUNION")</f>
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
         <v>0</v>
       </c>
       <c r="R7" s="49"/>
-      <c r="S7" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=REUNION")</f>
-        <v>0</v>
-      </c>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="49"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>63</v>
+      </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
-      <c r="F8" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="49"/>
-      <c r="M8" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=07",$E$10:$E$32,"=SDD")</f>
+      <c r="M8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O8" s="49"/>
       <c r="P8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=STRUCTURE")</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=STRUCTURE")</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="49"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="85" t="s">
+      <c r="Q9" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C10" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D10" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="68" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=07",$E$10:$E$32,"=INDUS")</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="59">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=CARLINGAGE")</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="49"/>
-      <c r="S9" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=CARLINGAGE")</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="49"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="75">
-        <f t="shared" ref="K10:K32" si="0">SUM(F10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=08",$E$10:$E$32,"=SDD")</f>
+      <c r="N10" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O10" s="49"/>
       <c r="P10" s="58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="59">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=PANNE INFORMATIQUE")</f>
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
         <v>0</v>
       </c>
       <c r="R10" s="49"/>
-      <c r="S10" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" s="55">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=PANNE INFORMATIQUE")</f>
-        <v>0</v>
-      </c>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
       <c r="U10" s="49"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="89" t="s">
-        <v>63</v>
-      </c>
+      <c r="D11" s="89"/>
       <c r="E11" s="62"/>
       <c r="F11" s="63"/>
       <c r="G11" s="64"/>
@@ -2480,42 +2626,35 @@
       <c r="I11" s="64"/>
       <c r="J11" s="65"/>
       <c r="K11" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="49"/>
-      <c r="M11" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=08",$E$10:$E$32,"=INDUS")</f>
+      <c r="M11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O11" s="49"/>
-      <c r="P11" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="71">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,BDD!A3,$C$10:$C$32,"=ATTENTE")</f>
+      <c r="P11" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
         <v>0</v>
       </c>
       <c r="R11" s="49"/>
-      <c r="S11" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="57">
-        <f>SUMIFS($K$10:$K$32,$B$10:$B$32,"=AUTRE",$C$10:$C$32,"=ATTENTE")</f>
-        <v>0</v>
-      </c>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
       <c r="U11" s="49"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
       <c r="B12" s="60"/>
       <c r="C12" s="61"/>
-      <c r="D12" s="89">
-        <v>17</v>
-      </c>
+      <c r="D12" s="89"/>
       <c r="E12" s="62"/>
       <c r="F12" s="63"/>
       <c r="G12" s="64"/>
@@ -2527,28 +2666,31 @@
         <v>0</v>
       </c>
       <c r="L12" s="49"/>
-      <c r="M12" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=09",$E$10:$E$32,"=SDD")</f>
+      <c r="M12" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="P12" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="71">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
       <c r="R12" s="49"/>
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49"/>
       <c r="B13" s="60"/>
       <c r="C13" s="61"/>
-      <c r="D13" s="89" t="s">
-        <v>66</v>
-      </c>
+      <c r="D13" s="89"/>
       <c r="E13" s="62"/>
       <c r="F13" s="63"/>
       <c r="G13" s="64"/>
@@ -2560,11 +2702,11 @@
         <v>0</v>
       </c>
       <c r="L13" s="49"/>
-      <c r="M13" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="57">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=09",$E$10:$E$32,"=INDUS")</f>
+      <c r="M13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O13" s="49"/>
@@ -2575,7 +2717,7 @@
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49"/>
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
@@ -2591,28 +2733,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="49"/>
-      <c r="M14" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14B",$E$10:$E$32,"=SDD")</f>
+      <c r="M14" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="P14" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="101"/>
       <c r="R14" s="49"/>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
-      <c r="D15" s="89" t="s">
-        <v>64</v>
-      </c>
+      <c r="D15" s="89"/>
       <c r="E15" s="62"/>
       <c r="F15" s="63"/>
       <c r="G15" s="64"/>
@@ -2624,22 +2766,27 @@
         <v>0</v>
       </c>
       <c r="L15" s="49"/>
-      <c r="M15" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14B",$E$10:$E$32,"=INDUS")</f>
+      <c r="M15" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="P15" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="67">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="49"/>
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="49"/>
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
@@ -2655,22 +2802,27 @@
         <v>0</v>
       </c>
       <c r="L16" s="49"/>
-      <c r="M16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14H",$E$10:$E$32,"=SDD")</f>
+      <c r="M16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="P16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
       <c r="U16" s="49"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="49"/>
       <c r="B17" s="60"/>
       <c r="C17" s="61"/>
@@ -2686,22 +2838,27 @@
         <v>0</v>
       </c>
       <c r="L17" s="49"/>
-      <c r="M17" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=14H",$E$10:$E$32,"=INDUS")</f>
+      <c r="M17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -2717,22 +2874,27 @@
         <v>0</v>
       </c>
       <c r="L18" s="49"/>
-      <c r="M18" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15B",$E$10:$E$32,"=SDD")</f>
+      <c r="M18" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="P18" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
       <c r="R18" s="49"/>
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
@@ -2748,22 +2910,27 @@
         <v>0</v>
       </c>
       <c r="L19" s="49"/>
-      <c r="M19" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15B",$E$10:$E$32,"=INDUS")</f>
+      <c r="M19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="P19" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49"/>
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
@@ -2779,22 +2946,27 @@
         <v>0</v>
       </c>
       <c r="L20" s="49"/>
-      <c r="M20" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15H",$E$10:$E$32,"=SDD")</f>
+      <c r="M20" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49"/>
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
@@ -2810,22 +2982,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="49"/>
-      <c r="M21" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="57">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=15H",$E$10:$E$32,"=INDUS")</f>
+      <c r="M21" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="P21" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
       <c r="U21" s="49"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61"/>
@@ -2841,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="49"/>
-      <c r="M22" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16B",$E$10:$E$32,"=SDD")</f>
+      <c r="M22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O22" s="49"/>
@@ -2856,7 +3033,7 @@
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="60"/>
       <c r="C23" s="61"/>
@@ -2872,11 +3049,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="49"/>
-      <c r="M23" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16B",$E$10:$E$32,"=INDUS")</f>
+      <c r="M23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O23" s="49"/>
@@ -2887,7 +3064,7 @@
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
@@ -2903,11 +3080,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="49"/>
-      <c r="M24" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16H",$E$10:$E$32,"=SDD")</f>
+      <c r="M24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O24" s="49"/>
@@ -2918,7 +3095,7 @@
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="60"/>
       <c r="C25" s="61"/>
@@ -2934,11 +3111,11 @@
         <v>0</v>
       </c>
       <c r="L25" s="49"/>
-      <c r="M25" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=16H",$E$10:$E$32,"=INDUS")</f>
+      <c r="M25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O25" s="49"/>
@@ -2949,7 +3126,7 @@
       <c r="T25" s="49"/>
       <c r="U25" s="49"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49"/>
       <c r="B26" s="60"/>
       <c r="C26" s="61"/>
@@ -2965,11 +3142,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="49"/>
-      <c r="M26" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=17",$E$10:$E$32,"=SDD")</f>
+      <c r="M26" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O26" s="49"/>
@@ -2980,7 +3157,7 @@
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="60"/>
       <c r="C27" s="61"/>
@@ -2996,11 +3173,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="49"/>
-      <c r="M27" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=17",$E$10:$E$32,"=INDUS")</f>
+      <c r="M27" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O27" s="49"/>
@@ -3011,7 +3188,7 @@
       <c r="T27" s="49"/>
       <c r="U27" s="49"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
@@ -3027,11 +3204,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="49"/>
-      <c r="M28" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=22",$E$10:$E$32,"=SDD")</f>
+      <c r="M28" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O28" s="49"/>
@@ -3042,7 +3219,7 @@
       <c r="T28" s="49"/>
       <c r="U28" s="49"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="60"/>
       <c r="C29" s="61"/>
@@ -3058,11 +3235,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="49"/>
-      <c r="M29" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="57">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=22",$E$10:$E$32,"=INDUS")</f>
+      <c r="M29" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O29" s="49"/>
@@ -3073,7 +3250,7 @@
       <c r="T29" s="49"/>
       <c r="U29" s="49"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
       <c r="B30" s="60"/>
       <c r="C30" s="61"/>
@@ -3089,11 +3266,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="49"/>
-      <c r="M30" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=23",$E$10:$E$32,"=SDD")</f>
+      <c r="M30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O30" s="49"/>
@@ -3104,7 +3281,7 @@
       <c r="T30" s="49"/>
       <c r="U30" s="49"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="60"/>
       <c r="C31" s="61"/>
@@ -3120,11 +3297,11 @@
         <v>0</v>
       </c>
       <c r="L31" s="49"/>
-      <c r="M31" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="69">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=23",$E$10:$E$32,"=INDUS")</f>
+      <c r="M31" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O31" s="49"/>
@@ -3135,27 +3312,27 @@
       <c r="T31" s="49"/>
       <c r="U31" s="49"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="60"/>
       <c r="C32" s="61"/>
       <c r="D32" s="89"/>
       <c r="E32" s="62"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="76">
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="49"/>
-      <c r="M32" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="53">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=24",$E$10:$E$32,"=SDD")</f>
+      <c r="M32" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
         <v>0</v>
       </c>
       <c r="O32" s="49"/>
@@ -3166,44 +3343,27 @@
       <c r="T32" s="49"/>
       <c r="U32" s="49"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="77">
-        <f>SUM(F10:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="78">
-        <f>SUM(G10:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="78">
-        <f>SUM(H10:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="78">
-        <f>SUM(I10:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="79">
-        <f>SUM(J10:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="80">
-        <f>SUM(F33:J33)</f>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="76">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="49"/>
-      <c r="M33" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="57">
-        <f>SUMIFS($K$10:$K$32,$D$10:$D$32,"=24",$E$10:$E$32,"=INDUS")</f>
+      <c r="M33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
         <v>0</v>
       </c>
       <c r="O33" s="49"/>
@@ -3214,21 +3374,46 @@
       <c r="T33" s="49"/>
       <c r="U33" s="49"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="77">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="78">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="78">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="78">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="79">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="80">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
+      <c r="M34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
       <c r="O34" s="49"/>
       <c r="P34" s="49"/>
       <c r="Q34" s="49"/>
@@ -3237,13 +3422,1258 @@
       <c r="T34" s="49"/>
       <c r="U34" s="49"/>
     </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="F2:N2"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37EBD98A-891F-493F-ADAC-C3C74836915B}">
+          <x14:formula1>
+            <xm:f>BDD!$A$3:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFFF08DE-D656-4C76-BD76-B696602FC7B4}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{450C78B1-2ED9-47F4-A826-6DB2239A5524}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1D8727C-26F5-49AC-BB92-85945E1376F0}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7E91E2-C564-4C2A-BAF7-E59585C721FC}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V58" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="93" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Tanguy MONFORT</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="98" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE FONCTION </v>
+      </c>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="98" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE ENSEMBLE </v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="53">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="75">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="49"/>
+      <c r="M11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="71">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="49"/>
+      <c r="P14" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="49"/>
+      <c r="P15" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="67">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="49"/>
+      <c r="M26" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="49"/>
+      <c r="M29" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="77">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="78">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="78">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="78">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="79">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="80">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="49"/>
+      <c r="M34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F2:N2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,25 +4685,25 @@
           <x14:formula1>
             <xm:f>BDD!$C$20:$C$33</xm:f>
           </x14:formula1>
-          <xm:sqref>E10:E32</xm:sqref>
+          <xm:sqref>E11:E33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57FEBC65-92E6-4FC7-92E2-D436570FC76E}">
           <x14:formula1>
             <xm:f>BDD!$E$3:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>D10:D32</xm:sqref>
+          <xm:sqref>D11:D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28978171-30DC-4361-A7BE-DC61E589913F}">
           <x14:formula1>
             <xm:f>BDD!$C$3:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C10:C32</xm:sqref>
+          <xm:sqref>C11:C33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B58CF0C5-AFB9-4986-9246-3A3D31946BB9}">
           <x14:formula1>
             <xm:f>BDD!$A$3:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B32</xm:sqref>
+          <xm:sqref>B11:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3281,7 +4711,2451 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF4ADC4-8C13-42CE-92EF-2E3611F6B571}">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V61" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="93" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Tanguy MONFORT</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="98" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE FONCTION </v>
+      </c>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="98" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE ENSEMBLE </v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="53">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="75">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="49"/>
+      <c r="M11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="71">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="49"/>
+      <c r="P14" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="49"/>
+      <c r="P15" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="67">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="49"/>
+      <c r="M26" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="49"/>
+      <c r="M29" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="77">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="78">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="78">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="78">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="79">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="80">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="49"/>
+      <c r="M34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0ACF2ACA-679E-4E1E-99EC-B557B132C3A8}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BD4DED0-C8BF-4A29-AB41-BDB3B4267DD9}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{418C65C7-D0A6-428C-BCC3-152D9F0AC26A}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC25683F-8514-4957-846E-B111872A53D9}">
+          <x14:formula1>
+            <xm:f>BDD!$A$3:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870BAFA0-1E37-4A26-82DA-5CE876C70719}">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="21" ySplit="35" topLeftCell="V58" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="93" t="str">
+        <f>"FEUILLE DE POINTAGE - " &amp; C6</f>
+        <v>FEUILLE DE POINTAGE - Tanguy MONFORT</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="98" t="str">
+        <f>"SYNTHESE FONCTION " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE FONCTION </v>
+      </c>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="98" t="str">
+        <f>"SYNTHESE ENSEMBLE " &amp; BDD!A3</f>
+        <v xml:space="preserve">SYNTHESE ENSEMBLE </v>
+      </c>
+      <c r="N6" s="99"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="53">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=06",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=07",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="75">
+        <f t="shared" ref="K11:K33" si="0">SUM(F11:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="49"/>
+      <c r="M11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="59">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=08",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="71">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,BDD!A3,$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=09",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="49"/>
+      <c r="P14" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="49"/>
+      <c r="P15" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="67">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=FORMATION")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=GESTION PROJET")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=REUNION")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=14H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=STRUCTURE")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=CARLINGAGE")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="55">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=PANNE INFORMATIQUE")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
+        <f>SUMIFS($K$11:$K$33,$B$11:$B$33,"=AUTRE",$C$11:$C$33,"=ATTENTE")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=15H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16B",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="49"/>
+      <c r="M26" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=16H",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=17",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="49"/>
+      <c r="M29" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=22",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="69">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=23",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="53">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=SDD")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="77">
+        <f>SUM(F11:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="78">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="78">
+        <f>SUM(H11:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="78">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="79">
+        <f>SUM(J11:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="80">
+        <f>SUM(F34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="49"/>
+      <c r="M34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="57">
+        <f>SUMIFS($K$11:$K$33,$D$11:$D$33,"=24",$E$11:$E$33,"=INDUS")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P14:Q14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84857E98-BB19-4391-A983-8E6B8BC71AA4}">
+          <x14:formula1>
+            <xm:f>BDD!$A$3:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3197BBED-7379-4429-9889-15A7619E44C1}">
+          <x14:formula1>
+            <xm:f>BDD!$C$3:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{523009F4-2AB5-4BCF-9C71-2245B9C5A849}">
+          <x14:formula1>
+            <xm:f>BDD!$E$3:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32B6DB10-3CAA-4DE2-BF22-374922B26927}">
+          <x14:formula1>
+            <xm:f>BDD!$C$20:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H57"/>
@@ -3290,46 +7164,46 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="108"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="40"/>
       <c r="C3" s="17"/>
@@ -3339,12 +7213,12 @@
         <v>06</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="102"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="103"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
         <f>[2]SOURCE!A4</f>
         <v>AUTRE</v>
@@ -3364,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="str">
         <f>[2]SOURCE!A5</f>
         <v>ABSENT</v>
@@ -3384,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>0</v>
       </c>
@@ -3403,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" s="15"/>
       <c r="C7" s="18"/>
@@ -3420,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
@@ -3437,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="15"/>
       <c r="C9" s="18"/>
@@ -3454,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="15"/>
       <c r="C10" s="18"/>
@@ -3471,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="15"/>
       <c r="C11" s="18"/>
@@ -3488,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="15"/>
       <c r="C12" s="18"/>
@@ -3505,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42"/>
       <c r="B13" s="15"/>
       <c r="C13" s="19"/>
@@ -3522,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
@@ -3539,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -3556,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
@@ -3573,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -3590,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3606,9 +7480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="46" t="s">
@@ -3624,9 +7498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="25"/>
@@ -3640,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="str">
         <f>[2]SOURCE!A21</f>
         <v>Alexandra VAUGRENARD</v>
@@ -3657,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="str">
         <f>[2]SOURCE!A22</f>
         <v>Brigitte VELLY</v>
@@ -3674,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="str">
         <f>[2]SOURCE!A23</f>
         <v>Jean-Marie COLONNE</v>
@@ -3691,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="str">
         <f>[2]SOURCE!A24</f>
         <v>Martin BERTHO</v>
@@ -3708,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="str">
         <f>[2]SOURCE!A25</f>
         <v>Olivier GONSE</v>
@@ -3725,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="str">
         <f>[2]SOURCE!A26</f>
         <v>Philippe HAYS</v>
@@ -3742,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="str">
         <f>[2]SOURCE!A27</f>
         <v>Philippe LE MESTRE</v>
@@ -3759,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="str">
         <f>[2]SOURCE!A28</f>
         <v>Pierre GRAFFION</v>
@@ -3776,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="str">
         <f>[2]SOURCE!A29</f>
         <v>Sébastien LAROSE-BLIN</v>
@@ -3793,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="str">
         <f>[2]SOURCE!A30</f>
         <v>Tanguy MONFORT</v>
@@ -3810,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="str">
         <f>[2]SOURCE!A31</f>
         <v>Yohann JAFFREDO</v>
@@ -3827,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="str">
         <f>[2]SOURCE!A32</f>
         <v>Jean-Michel GOURLAN</v>
@@ -3837,22 +7711,22 @@
       <c r="D32" s="14"/>
       <c r="E32" s="18"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="14"/>
       <c r="C33" s="43"/>
       <c r="D33" s="14"/>
       <c r="E33" s="19"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="101" t="s">
+      <c r="G33" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="102"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="103"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3866,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3880,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3894,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3902,13 +7776,13 @@
       <c r="E37" s="32"/>
       <c r="F37" s="23"/>
       <c r="G37" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3922,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3936,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3950,29 +7824,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="32"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="111"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="111"/>
+      <c r="H41" s="112"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="32"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="101" t="s">
+      <c r="G42" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="102"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="103"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3986,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4000,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4014,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -4022,13 +7896,13 @@
       <c r="E46" s="32"/>
       <c r="F46" s="23"/>
       <c r="G46" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4042,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -4056,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4070,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4080,7 +7954,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4090,7 +7964,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4100,7 +7974,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4110,7 +7984,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -4120,7 +7994,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -4130,7 +8004,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="36"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4140,7 +8014,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="37"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
